--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\M.Tech\2nd sem\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\M.Tech\2nd sem\Project\SmarCleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1078,16 +1078,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Task</t>
   </si>
@@ -35,16 +35,7 @@
     <t>Days to complete</t>
   </si>
   <si>
-    <t>Assambling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding and Callibrate </t>
-  </si>
-  <si>
     <t>IOT enable</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
   </si>
   <si>
     <t>Research work</t>
@@ -54,6 +45,12 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Assembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding and Calibrate </t>
   </si>
 </sst>
 </file>
@@ -211,9 +208,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Research work</c:v>
                 </c:pt>
@@ -221,18 +218,15 @@
                   <c:v>Collect Material &amp; Designing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Assambling</c:v>
+                  <c:v>Assembling</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Coding and Callibrate </c:v>
+                  <c:v>Coding and Calibrate </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>IOT enable</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Machine Learning</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
@@ -240,10 +234,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43516</c:v>
                 </c:pt>
@@ -260,9 +254,6 @@
                   <c:v>43573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43577</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>43582</c:v>
                 </c:pt>
               </c:numCache>
@@ -300,9 +291,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Research work</c:v>
                 </c:pt>
@@ -310,18 +301,15 @@
                   <c:v>Collect Material &amp; Designing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Assambling</c:v>
+                  <c:v>Assembling</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Coding and Callibrate </c:v>
+                  <c:v>Coding and Calibrate </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>IOT enable</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Machine Learning</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
@@ -329,10 +317,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -349,9 +337,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1086,7 +1071,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1372,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,7 +1383,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>43516</v>
@@ -1409,7 +1394,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>43523</v>
@@ -1420,7 +1405,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>43549</v>
@@ -1431,7 +1416,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>43565</v>
@@ -1442,7 +1427,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>43573</v>
@@ -1456,28 +1441,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>43577</v>
+        <v>43582</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43582</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>